--- a/data/trans_bre/IP28_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP28_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 2,47</t>
+          <t>-5,45; 2,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 6,7</t>
+          <t>-1,71; 6,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 4,49</t>
+          <t>-4,31; 4,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 0,0</t>
+          <t>-8,73; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,44</t>
+          <t>-1,0; 1,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,03</t>
+          <t>-1,29; 1,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,96</t>
+          <t>-1,29; 0,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,2</t>
+          <t>-0,46; 2,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,9; 224,63</t>
+          <t>-60,79; 258,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,76; 179,36</t>
+          <t>-57,34; 150,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-72,15; 205,71</t>
+          <t>-75,56; 177,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 417,17</t>
+          <t>-49,79; 373,48</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,08</t>
+          <t>-0,82; 1,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,64</t>
+          <t>-2,17; 1,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,21</t>
+          <t>-0,66; 2,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,92</t>
+          <t>-1,05; 2,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,1</t>
+          <t>-0,86; 1,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,72</t>
+          <t>-0,82; 1,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,95</t>
+          <t>-0,89; 0,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,67</t>
+          <t>-0,44; 1,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-53,2; 151,39</t>
+          <t>-53,32; 139,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 159,01</t>
+          <t>-40,54; 131,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-63,28; 188,91</t>
+          <t>-60,41; 160,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 288,83</t>
+          <t>-39,76; 281,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP28_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP28_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,19%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 2,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 6,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 3,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-43,23%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>105,19%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-31,54%</t>
+          <t>-6,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>68,05%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 2,47</t>
+          <t>-0,9; 1,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 6,33</t>
+          <t>-1,15; 1,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 4,48</t>
+          <t>-1,26; 1,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 0,0</t>
+          <t>-0,51; 2,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,61; 269,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,19; 173,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,81; 194,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,2; 404,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>100,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>-23,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,74%</t>
+          <t>131,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>72,16%</t>
+          <t>142,17%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,59</t>
+          <t>-0,81; 2,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,87</t>
+          <t>-2,15; 1,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,92</t>
+          <t>-0,38; 2,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,35</t>
+          <t>-0,62; 3,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,79; 258,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 150,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-75,56; 177,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,79; 373,48</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,02%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,74%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>131,32%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>122,7%</t>
+          <t>46,87%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,99</t>
+          <t>-0,88; 1,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,63</t>
+          <t>-0,83; 1,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,55</t>
+          <t>-0,95; 0,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,94</t>
+          <t>-0,5; 1,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,4; 130,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,24; 152,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,61; 155,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,83; 316,47</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6,98%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>21,9%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>48,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 1,06</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 1,57</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 0,87</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 1,63</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-53,32; 139,97</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-40,54; 131,53</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-60,41; 160,48</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-39,76; 281,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
